--- a/estimates/eegWind.xlsx
+++ b/estimates/eegWind.xlsx
@@ -63,13 +63,13 @@
     <t>Total marginal CO2 offset, Domestic and hydro/PSP offsets only</t>
   </si>
   <si>
-    <t>denominator</t>
-  </si>
-  <si>
     <t>https://ideas.repec.org/a/eee/pubeco/v169y2019icp172-202.html</t>
   </si>
   <si>
     <t>Abrell et al. (2019) Table 5</t>
+  </si>
+  <si>
+    <t>co2_offset_per_MWh</t>
   </si>
 </sst>
 </file>
@@ -893,7 +893,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>-175.2</v>
@@ -968,10 +968,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>13</v>
